--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Roques_(botaniste)/Joseph_Roques_(botaniste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Roques_(botaniste)/Joseph_Roques_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Roques, né le 9 février 1772 à Valence (Tarn)[1] et mort le 7 mai 1850 à Montpellier[2], est un médecin et botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Roques, né le 9 février 1772 à Valence (Tarn) et mort le 7 mai 1850 à Montpellier, est un médecin et botaniste français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est principalement connu pour son ouvrage de matière médicale, intitulé  Phytographie médicale, histoire des substances héroïques et des poisons tirés du règne végétal et comprenant 150 planches illustrées en couleurs, dessinées et gravées par Édouard Hocquart[3].
-Après avoir fait ses études à la faculté de médecine de l'Université de Montpellier, il officie comme médecin militaire de 1794 à 1798. Il monte ensuite à Paris où il est membre de plusieurs sociétés médicales et devient un botaniste éminent[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est principalement connu pour son ouvrage de matière médicale, intitulé  Phytographie médicale, histoire des substances héroïques et des poisons tirés du règne végétal et comprenant 150 planches illustrées en couleurs, dessinées et gravées par Édouard Hocquart.
+Après avoir fait ses études à la faculté de médecine de l'Université de Montpellier, il officie comme médecin militaire de 1794 à 1798. Il monte ensuite à Paris où il est membre de plusieurs sociétés médicales et devient un botaniste éminent.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plantes usuelles, indigènes et exotiques, dessinées et coloriées d'après nature, Paris, 1809.
 Phytographie médicale, histoire des substances héroïques et des poisons tirés du règne végétal, 1821.
